--- a/variables.xlsx
+++ b/variables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90BBE7-DF90-4701-9F92-92FB0EA921B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7598B630-6655-4270-8607-FD8901BD96BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1297,7 +1297,7 @@
     <col min="4" max="4" width="18.578125" customWidth="1"/>
     <col min="5" max="5" width="20.41796875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="38.47265625" customWidth="1"/>
+    <col min="7" max="7" width="54.3671875" customWidth="1"/>
     <col min="8" max="8" width="28.47265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2047,29 +2047,29 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="7">
         <v>7</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="7" t="s">
         <v>267</v>
       </c>
     </row>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7598B630-6655-4270-8607-FD8901BD96BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D3055D-F084-4667-AF58-16FDF1F5B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="313">
   <si>
     <t>Variables names</t>
   </si>
@@ -934,6 +934,78 @@
   </si>
   <si>
     <t>RXQ_RX_G.xpt</t>
+  </si>
+  <si>
+    <t>[During the past month], how often did {you/SP} eat fruit? Include fresh, frozen or canned fruit. Do not include juices. [You can tell me per day, per week or per month.]</t>
+  </si>
+  <si>
+    <t>DTQ_F.xpt</t>
+  </si>
+  <si>
+    <t>DTD080Q and DTQ080U</t>
+  </si>
+  <si>
+    <t>DTD090Q-DTD130Q-, DTQ090U-DTQ130U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRD340-DRD370UQ </t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
+  <si>
+    <t>DTD170Q and DTQ170U</t>
+  </si>
+  <si>
+    <t>DTD030Q and DTQ030U</t>
+  </si>
+  <si>
+    <t>DTD120Q and DTQ120U</t>
+  </si>
+  <si>
+    <t>Please look at this card, during the past month, how often did {you/SP} eat red meat, such as beef, pork, ham, or sausage? Do not include chicken, turkey or seafood. [You can tell me per day, per week or per month.]</t>
+  </si>
+  <si>
+    <t>[During the past month], how often did {you/SP} eat refried beans, baked beans, beans in soup, pork and beans or any other type of cooked dried beans? Do not include green beans. [You can tell me per day, per week or per month.]</t>
+  </si>
+  <si>
+    <t>[During the past month], how often did {you/SP} have milk {either to drink or on cereal}? Do not include soy milk or small amounts of milk in coffee or tea. [You can tell me per day, per week or per month.]</t>
+  </si>
+  <si>
+    <t>DTD180Q and DTQ180U</t>
+  </si>
+  <si>
+    <t>Please look at this card, [during the past month], how often did {you/SP} eat processed meat, such as bacon, lunch meats, or hot dogs? [You can tell me per day, per week or per month.}</t>
+  </si>
+  <si>
+    <t>DTD210Q and DTQ210U</t>
+  </si>
+  <si>
+    <t>[During the past month], how often did {you/SP} eat brown rice or other cooked whole grains, such as bulgur, cracked wheat, or millet? Do not include white rice. [You can tell me per day, per week or per month.]</t>
+  </si>
+  <si>
+    <t>DTD200Q and DTQ200U</t>
+  </si>
+  <si>
+    <t>[During the past month], how often did {you/SP} eat whole grain bread including toast, rolls and in sandwiches? Whole grain breads include whole wheat, rye, oatmeal and pumpernickel. Do not include white bread. [You can tell me per day, per week or per month.]</t>
+  </si>
+  <si>
+    <t>Combine Red meat + processed meat + sea food</t>
+  </si>
+  <si>
+    <t>DTD060Q and DTQ060U</t>
+  </si>
+  <si>
+    <t>[During the past month], how often did {you/SP} drink coffee or tea that had sugar or honey added to it? ? Include coffee and tea you sweetened yourself and presweetened tea and coffee drinks such as Arizona Iced Tea and Frappuccino. Do not include artificially sweetened coffee or diet tea. [You can tell me per day, per week or per month.]</t>
+  </si>
+  <si>
+    <t>DTD220Q-DTD260Q, DTQ220U-DTQ260U</t>
+  </si>
+  <si>
+    <t>DTD190Q and DTQ190U</t>
+  </si>
+  <si>
+    <t>[During the past month], how often did {you/SP} eat any kind of cheese? Include cheese as a snack, cheese on burgers, sandwiches, and cheese mixed into such foods as lasagna, quesadillas, or casseroles. {Please do not count cheese on pizza.}[You can tell me per day, per week or per month.]</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1003,6 +1075,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1699,7 +1774,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -1716,7 +1791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -1733,7 +1808,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -1750,7 +1825,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>183</v>
       </c>
@@ -1767,119 +1842,116 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>282</v>
+      </c>
+      <c r="H21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21">
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>201</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>202</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>227</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>228</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23">
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24">
         <v>14</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>233</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>234</v>
-      </c>
-      <c r="H23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>235</v>
-      </c>
-      <c r="G24" t="s">
-        <v>236</v>
       </c>
       <c r="H24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
@@ -1888,44 +1960,44 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H25" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -1937,21 +2009,21 @@
         <v>49</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H27" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -1966,50 +2038,50 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
         <v>49</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H29" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -2018,18 +2090,24 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H30" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
       </c>
       <c r="D31" t="s">
         <v>49</v>
@@ -2038,631 +2116,710 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H31" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="7">
-        <v>7</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>198</v>
-      </c>
-      <c r="G33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H33" t="s">
-        <v>200</v>
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" t="s">
+        <v>232</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>275</v>
-      </c>
-      <c r="G34" t="s">
-        <v>276</v>
-      </c>
-      <c r="H34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>254</v>
-      </c>
-      <c r="G35" t="s">
-        <v>255</v>
-      </c>
-      <c r="H35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" t="s">
-        <v>218</v>
-      </c>
-      <c r="H36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" t="s">
-        <v>221</v>
-      </c>
-      <c r="H37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>225</v>
-      </c>
-      <c r="G38" t="s">
-        <v>226</v>
-      </c>
-      <c r="H38" t="s">
-        <v>219</v>
+      <c r="C34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="7">
+        <v>7</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="3">
+        <v>14</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="3">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>155</v>
+        <v>35</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E40" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>211</v>
+        <v>306</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>279</v>
-      </c>
-      <c r="G43" t="s">
-        <v>280</v>
-      </c>
-      <c r="H43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" t="s">
-        <v>277</v>
-      </c>
-      <c r="G44" t="s">
-        <v>278</v>
-      </c>
-      <c r="H44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" t="s">
-        <v>51</v>
+      <c r="F44" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>261</v>
-      </c>
-      <c r="G45" t="s">
-        <v>262</v>
-      </c>
-      <c r="H45" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>101</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>128</v>
+      <c r="C46" t="s">
+        <v>102</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="G46" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="H46" t="s">
-        <v>260</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I46"/>
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>275</v>
+      </c>
+      <c r="G47" t="s">
+        <v>276</v>
+      </c>
+      <c r="H47" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>254</v>
+      </c>
+      <c r="G48" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" t="s">
+        <v>219</v>
+      </c>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" t="s">
+        <v>221</v>
+      </c>
+      <c r="H50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C53" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="7">
         <v>18</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="3">
-        <v>20</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
-        <v>35</v>
+      <c r="F53" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
         <v>49</v>
       </c>
       <c r="E55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>279</v>
+      </c>
+      <c r="G55" t="s">
+        <v>280</v>
+      </c>
+      <c r="H55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>49</v>
       </c>
       <c r="E56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D57" t="s">
         <v>49</v>
       </c>
       <c r="E57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" t="s">
+        <v>262</v>
+      </c>
+      <c r="H57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A58" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>66</v>
+        <v>51</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D58" t="s">
         <v>49</v>
       </c>
       <c r="E58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" t="s">
+        <v>259</v>
+      </c>
+      <c r="H58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>20</v>
       </c>
@@ -2688,89 +2845,125 @@
         <v>288</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
-        <v>29</v>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
         <v>49</v>
       </c>
       <c r="E60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
-        <v>87</v>
+        <v>2</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G60" t="s">
+        <v>287</v>
+      </c>
+      <c r="H60" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
         <v>49</v>
       </c>
       <c r="E61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G61" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
         <v>49</v>
       </c>
       <c r="E62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G62" t="s">
+        <v>287</v>
+      </c>
+      <c r="H62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
         <v>49</v>
       </c>
       <c r="E63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G63" t="s">
+        <v>287</v>
+      </c>
+      <c r="H63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
         <v>49</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>286</v>
@@ -2782,261 +2975,231 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="7">
+        <v>20</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="3">
+        <v>8</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="3">
+        <v>5</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="3">
+        <v>5</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D66" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>168</v>
-      </c>
-      <c r="G67" t="s">
-        <v>282</v>
-      </c>
-      <c r="H67" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G69" t="s">
-        <v>287</v>
-      </c>
-      <c r="H69" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G70" t="s">
-        <v>287</v>
-      </c>
-      <c r="H70" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G71" t="s">
-        <v>287</v>
-      </c>
-      <c r="H71" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" t="s">
-        <v>49</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="3">
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G72" t="s">
-        <v>287</v>
-      </c>
-      <c r="H72" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74">
+        <v>133</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="3">
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D77" t="s">
-        <v>49</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
+      <c r="D75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H77">
-    <sortCondition ref="H2:H77"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I75">
+    <sortCondition ref="H2:H75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3045,10 +3208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAA67E9-9811-4B5E-A7FC-26E0B3853EB9}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3289,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>158</v>
       </c>
@@ -3300,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -3317,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -3334,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -3351,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -3368,7 +3531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3385,7 +3548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -3399,7 +3562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -3416,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -3430,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
@@ -3447,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -3462,6 +3625,52 @@
       </c>
       <c r="E27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D3055D-F084-4667-AF58-16FDF1F5B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD976E10-DA8F-492D-8EDA-04335E980012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="333">
   <si>
     <t>Variables names</t>
   </si>
@@ -1006,6 +1006,66 @@
   </si>
   <si>
     <t>[During the past month], how often did {you/SP} eat any kind of cheese? Include cheese as a snack, cheese on burgers, sandwiches, and cheese mixed into such foods as lasagna, quesadillas, or casseroles. {Please do not count cheese on pizza.}[You can tell me per day, per week or per month.]</t>
+  </si>
+  <si>
+    <t>fped_dr1tot_0910.sas7bdat</t>
+  </si>
+  <si>
+    <t>PF_SEAFD_HI and PF_SEAFD_LOW</t>
+  </si>
+  <si>
+    <t>oz. eq</t>
+  </si>
+  <si>
+    <t>F_TOTAL</t>
+  </si>
+  <si>
+    <t>cup eq.</t>
+  </si>
+  <si>
+    <t>V_TOTAL</t>
+  </si>
+  <si>
+    <t>PF_MEAT</t>
+  </si>
+  <si>
+    <t>oz. eq.</t>
+  </si>
+  <si>
+    <t>V_LEGUMES</t>
+  </si>
+  <si>
+    <t>D_TOTAL</t>
+  </si>
+  <si>
+    <t>PF_CUREDMEAT</t>
+  </si>
+  <si>
+    <t>G_WHOLE</t>
+  </si>
+  <si>
+    <t>(oz. eq.)</t>
+  </si>
+  <si>
+    <t>D_CHEESE</t>
+  </si>
+  <si>
+    <t>PF_POULT</t>
+  </si>
+  <si>
+    <t>PF_NUTSDS</t>
+  </si>
+  <si>
+    <t>oz. eq.)</t>
+  </si>
+  <si>
+    <t>PF_EGGS</t>
+  </si>
+  <si>
+    <t>PF_MPS_TOTAL</t>
+  </si>
+  <si>
+    <t>(oz. eq.</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1421,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2165,10 +2225,13 @@
         <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>293</v>
+        <v>314</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2215,13 +2278,13 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2241,10 +2304,13 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>292</v>
+        <v>318</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2264,13 +2330,13 @@
         <v>7</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>298</v>
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>320</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2290,13 +2356,13 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2316,13 +2382,13 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2342,13 +2408,13 @@
         <v>5</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2368,13 +2434,13 @@
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2394,13 +2460,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2420,13 +2480,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2441,10 +2495,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2464,13 +2515,13 @@
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3046,7 +3097,13 @@
         <v>8</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>294</v>
+        <v>327</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3066,7 +3123,13 @@
         <v>5</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>294</v>
+        <v>328</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3086,7 +3149,13 @@
         <v>5</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>294</v>
+        <v>330</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3106,7 +3175,13 @@
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>307</v>
+        <v>331</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3208,10 +3283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAA67E9-9811-4B5E-A7FC-26E0B3853EB9}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3673,6 +3748,452 @@
         <v>281</v>
       </c>
     </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="3">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="3">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="3">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="3">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD976E10-DA8F-492D-8EDA-04335E980012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33CA946-F317-4A4A-AD44-8E9DC4005A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,9 +654,6 @@
     <t>BPX_F.xpt</t>
   </si>
   <si>
-    <t>ALQ130</t>
-  </si>
-  <si>
     <t>1 to 36: range of values; 777: refused; 999: don't know; IF LESS THAN 1 DRINK, ENTER '1'. IF 95 DRINKS OR MORE, ENTER '95'. ENTER # OF DRINKS.</t>
   </si>
   <si>
@@ -888,9 +885,6 @@
     <t>(SP Interview Version) What is the highest grade or level of school {you have/SP has} completed or the highest degree {you have/s/he has} received?</t>
   </si>
   <si>
-    <t>OCD241</t>
-  </si>
-  <si>
     <t>OCD241 What kind of work {were you/was SP} doing? (For example: farming, mail clerk, computer specialist.)</t>
   </si>
   <si>
@@ -1066,6 +1060,12 @@
   </si>
   <si>
     <t>(oz. eq.</t>
+  </si>
+  <si>
+    <t>ALQ130&amp;ALQ120Q</t>
+  </si>
+  <si>
+    <t>OCD241 and OCD150 and OCQ180</t>
   </si>
 </sst>
 </file>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1479,13 +1479,13 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" t="s">
         <v>195</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>196</v>
-      </c>
-      <c r="H2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1556,7 +1556,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1568,18 +1568,18 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" t="s">
         <v>252</v>
       </c>
-      <c r="G6" t="s">
-        <v>253</v>
-      </c>
       <c r="H6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1594,13 +1594,13 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" t="s">
         <v>215</v>
-      </c>
-      <c r="G7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1620,13 +1620,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" t="s">
         <v>256</v>
       </c>
-      <c r="G8" t="s">
-        <v>257</v>
-      </c>
       <c r="H8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1649,7 +1649,7 @@
         <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" t="s">
         <v>194</v>
@@ -1724,10 +1724,10 @@
         <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" t="s">
         <v>271</v>
-      </c>
-      <c r="G12" t="s">
-        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>166</v>
@@ -1799,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" t="s">
         <v>268</v>
-      </c>
-      <c r="G15" t="s">
-        <v>269</v>
       </c>
       <c r="H15" t="s">
         <v>166</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1919,7 +1919,7 @@
         <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H21" t="s">
         <v>166</v>
@@ -1942,13 +1942,13 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
         <v>201</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>202</v>
-      </c>
-      <c r="H22" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1968,13 +1968,13 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
         <v>227</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>228</v>
-      </c>
-      <c r="H23" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1994,13 +1994,13 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
         <v>233</v>
       </c>
-      <c r="G24" t="s">
-        <v>234</v>
-      </c>
       <c r="H24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2020,13 +2020,13 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" t="s">
         <v>235</v>
       </c>
-      <c r="G25" t="s">
-        <v>236</v>
-      </c>
       <c r="H25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2046,13 +2046,13 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
         <v>237</v>
       </c>
-      <c r="G26" t="s">
-        <v>238</v>
-      </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2072,13 +2072,13 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
         <v>239</v>
       </c>
-      <c r="G27" t="s">
-        <v>240</v>
-      </c>
       <c r="H27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2098,13 +2098,13 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
         <v>241</v>
       </c>
-      <c r="G28" t="s">
-        <v>242</v>
-      </c>
       <c r="H28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2124,13 +2124,13 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
         <v>243</v>
       </c>
-      <c r="G29" t="s">
-        <v>244</v>
-      </c>
       <c r="H29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2150,13 +2150,13 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
         <v>230</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>231</v>
-      </c>
-      <c r="H30" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2176,13 +2176,13 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
         <v>245</v>
       </c>
-      <c r="G31" t="s">
-        <v>246</v>
-      </c>
       <c r="H31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2198,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" t="s">
         <v>247</v>
       </c>
-      <c r="G32" t="s">
-        <v>248</v>
-      </c>
       <c r="H32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I32"/>
     </row>
@@ -2225,13 +2225,13 @@
         <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2251,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="I34" s="7"/>
     </row>
@@ -2278,13 +2278,13 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2304,13 +2304,13 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2330,13 +2330,13 @@
         <v>7</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2356,13 +2356,13 @@
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2382,13 +2382,13 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2408,13 +2408,13 @@
         <v>5</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2434,13 +2434,13 @@
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2460,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2480,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2495,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2515,13 +2515,13 @@
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2541,13 +2541,13 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
+        <v>197</v>
+      </c>
+      <c r="G46" t="s">
         <v>198</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>199</v>
-      </c>
-      <c r="H46" t="s">
-        <v>200</v>
       </c>
       <c r="I46"/>
     </row>
@@ -2568,13 +2568,13 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I47"/>
     </row>
@@ -2595,13 +2595,13 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48" t="s">
         <v>254</v>
       </c>
-      <c r="G48" t="s">
-        <v>255</v>
-      </c>
       <c r="H48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I48"/>
     </row>
@@ -2622,13 +2622,13 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" t="s">
         <v>217</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>218</v>
-      </c>
-      <c r="H49" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2648,13 +2648,13 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" t="s">
         <v>220</v>
       </c>
-      <c r="G50" t="s">
-        <v>221</v>
-      </c>
       <c r="H50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2674,13 +2674,13 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" t="s">
         <v>225</v>
       </c>
-      <c r="G51" t="s">
-        <v>226</v>
-      </c>
       <c r="H51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2698,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>273</v>
+        <v>332</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2727,16 +2727,16 @@
         <v>18</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="I53" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2756,13 +2756,13 @@
         <v>1</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="H54" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I54" s="7"/>
     </row>
@@ -2783,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G55" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2809,13 +2809,13 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2835,13 +2835,13 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
+        <v>260</v>
+      </c>
+      <c r="G57" t="s">
         <v>261</v>
       </c>
-      <c r="G57" t="s">
-        <v>262</v>
-      </c>
       <c r="H57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
@@ -2861,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
+        <v>257</v>
+      </c>
+      <c r="G58" t="s">
         <v>258</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>259</v>
-      </c>
-      <c r="H58" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2887,13 +2887,13 @@
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G59" t="s">
+        <v>285</v>
+      </c>
+      <c r="H59" t="s">
         <v>286</v>
-      </c>
-      <c r="G59" t="s">
-        <v>287</v>
-      </c>
-      <c r="H59" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2913,13 +2913,13 @@
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G60" t="s">
+        <v>285</v>
+      </c>
+      <c r="H60" t="s">
         <v>286</v>
-      </c>
-      <c r="G60" t="s">
-        <v>287</v>
-      </c>
-      <c r="H60" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2939,18 +2939,18 @@
         <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G61" t="s">
+        <v>285</v>
+      </c>
+      <c r="H61" t="s">
         <v>286</v>
-      </c>
-      <c r="G61" t="s">
-        <v>287</v>
-      </c>
-      <c r="H61" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B62" t="s">
         <v>51</v>
@@ -2965,13 +2965,13 @@
         <v>1</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G62" t="s">
+        <v>285</v>
+      </c>
+      <c r="H62" t="s">
         <v>286</v>
-      </c>
-      <c r="G62" t="s">
-        <v>287</v>
-      </c>
-      <c r="H62" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2991,13 +2991,13 @@
         <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G63" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" t="s">
         <v>286</v>
-      </c>
-      <c r="G63" t="s">
-        <v>287</v>
-      </c>
-      <c r="H63" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3017,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G64" t="s">
+        <v>285</v>
+      </c>
+      <c r="H64" t="s">
         <v>286</v>
-      </c>
-      <c r="G64" t="s">
-        <v>287</v>
-      </c>
-      <c r="H64" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3043,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="I65" s="7"/>
     </row>
@@ -3070,13 +3070,13 @@
         <v>20</v>
       </c>
       <c r="F66" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="H66" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I66" s="7"/>
     </row>
@@ -3097,13 +3097,13 @@
         <v>8</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3123,13 +3123,13 @@
         <v>5</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3149,13 +3149,13 @@
         <v>5</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3175,13 +3175,13 @@
         <v>4</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3255,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3719,13 +3719,13 @@
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3745,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -3765,13 +3765,13 @@
         <v>15</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3791,10 +3791,10 @@
         <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3814,13 +3814,13 @@
         <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3840,13 +3840,13 @@
         <v>6</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3866,13 +3866,13 @@
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3892,13 +3892,13 @@
         <v>5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3918,13 +3918,13 @@
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3944,13 +3944,13 @@
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3970,13 +3970,13 @@
         <v>3</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3991,10 +3991,10 @@
         <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4014,16 +4014,16 @@
         <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -4040,10 +4040,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4063,7 +4063,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4083,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4103,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4123,7 +4123,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33CA946-F317-4A4A-AD44-8E9DC4005A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E57637-A3CE-4BB5-8F10-2F38C1144428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E57637-A3CE-4BB5-8F10-2F38C1144428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA20284F-C49D-486D-BB63-8A040BE6F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="343">
   <si>
     <t>Variables names</t>
   </si>
@@ -1066,6 +1066,36 @@
   </si>
   <si>
     <t>OCD241 and OCD150 and OCQ180</t>
+  </si>
+  <si>
+    <t>Eligible status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIGSTAT: </t>
+  </si>
+  <si>
+    <t>MORSTAT:</t>
+  </si>
+  <si>
+    <t>Mortality status</t>
+  </si>
+  <si>
+    <t>PERMTH_INT</t>
+  </si>
+  <si>
+    <t>Follow-up time</t>
+  </si>
+  <si>
+    <t>beef+veal</t>
+  </si>
+  <si>
+    <t>beef+veal+pork</t>
+  </si>
+  <si>
+    <t>beef+veal+pork+lamb</t>
+  </si>
+  <si>
+    <t>beef+veal+lamb</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1604,144 +1634,144 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="H8" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
-        <v>115</v>
+      <c r="A9" t="s">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" t="s">
-        <v>269</v>
+        <v>172</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="H9" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>99</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
       </c>
       <c r="H10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>6</v>
+      <c r="A11" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>170</v>
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="H11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>270</v>
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="H12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>8</v>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
@@ -1750,59 +1780,59 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
         <v>49</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="H14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7" t="s">
-        <v>154</v>
+      <c r="A15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
         <v>49</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="H15" t="s">
         <v>166</v>
@@ -1810,42 +1840,39 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="H16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>160</v>
+      <c r="A17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="H17" t="s">
         <v>166</v>
@@ -1853,151 +1880,181 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>180</v>
+      <c r="A19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="H19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="39.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="H20" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7" t="s">
-        <v>98</v>
+      <c r="A21" t="s">
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>49</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="G21" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="H22" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
-        <v>81</v>
+      <c r="A23" t="s">
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H23" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>49</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G24" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H24" t="s">
         <v>231</v>
@@ -2005,7 +2062,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -2017,13 +2074,13 @@
         <v>49</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H25" t="s">
         <v>231</v>
@@ -2031,25 +2088,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H26" t="s">
         <v>231</v>
@@ -2057,228 +2114,228 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
         <v>49</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H27" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
       <c r="D28" t="s">
         <v>49</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>242</v>
-      </c>
-      <c r="G29" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" t="s">
-        <v>231</v>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="3">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30" t="s">
-        <v>230</v>
-      </c>
-      <c r="H30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" t="s">
-        <v>245</v>
-      </c>
-      <c r="H31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>246</v>
-      </c>
-      <c r="G32" t="s">
-        <v>247</v>
-      </c>
-      <c r="H32" t="s">
-        <v>231</v>
-      </c>
-      <c r="I32"/>
+      <c r="C30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="7">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="3">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="G33" t="s">
+        <v>318</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="7">
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="3">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E35" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>315</v>
@@ -2289,25 +2346,25 @@
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E36" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>311</v>
@@ -2315,25 +2372,25 @@
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E37" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G37" t="s">
-        <v>318</v>
+        <v>322</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>311</v>
@@ -2341,22 +2398,22 @@
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>315</v>
@@ -2365,281 +2422,309 @@
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" t="s">
+        <v>254</v>
+      </c>
+      <c r="H41" t="s">
+        <v>218</v>
+      </c>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" t="s">
+        <v>217</v>
+      </c>
+      <c r="H42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" t="s">
+        <v>220</v>
+      </c>
+      <c r="H43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="3">
-        <v>6</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="3">
-        <v>5</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="C46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="7">
+        <v>18</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="3">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
-        <v>197</v>
-      </c>
-      <c r="G46" t="s">
-        <v>198</v>
-      </c>
-      <c r="H46" t="s">
-        <v>199</v>
-      </c>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s">
-        <v>273</v>
-      </c>
-      <c r="G47" t="s">
-        <v>274</v>
-      </c>
-      <c r="H47" t="s">
-        <v>218</v>
-      </c>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>253</v>
-      </c>
-      <c r="G48" t="s">
-        <v>254</v>
-      </c>
-      <c r="H48" t="s">
-        <v>218</v>
-      </c>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
       <c r="F49" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="G49" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="H49" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>148</v>
+      <c r="A50" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" t="s">
-        <v>82</v>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D50" t="s">
         <v>49</v>
@@ -2648,24 +2733,24 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="G50" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="H50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>100</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A51" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
-        <v>82</v>
+      <c r="C51" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D51" t="s">
         <v>49</v>
@@ -2674,159 +2759,154 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="H51" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="7">
-        <v>1</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>282</v>
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" t="s">
+        <v>285</v>
+      </c>
+      <c r="H52" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="7">
-        <v>18</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>283</v>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G53" t="s">
+        <v>285</v>
+      </c>
+      <c r="H53" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="7">
-        <v>1</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I54" s="7"/>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" t="s">
+        <v>285</v>
+      </c>
+      <c r="H54" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
         <v>49</v>
       </c>
       <c r="E55">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>277</v>
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="G55" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H55" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
         <v>49</v>
       </c>
       <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>275</v>
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="G56" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H56" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>71</v>
+      <c r="C57" t="s">
+        <v>82</v>
       </c>
       <c r="D57" t="s">
         <v>49</v>
@@ -2834,181 +2914,183 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>260</v>
+      <c r="F57" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="G57" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="H57" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>257</v>
-      </c>
-      <c r="G58" t="s">
-        <v>258</v>
-      </c>
-      <c r="H58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="7">
         <v>20</v>
       </c>
-      <c r="B59" t="s">
+      <c r="F59" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G59" t="s">
-        <v>285</v>
-      </c>
-      <c r="H59" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G60" t="s">
-        <v>285</v>
-      </c>
-      <c r="H60" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G61" t="s">
-        <v>285</v>
-      </c>
-      <c r="H61" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
+      <c r="C62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G62" t="s">
-        <v>285</v>
-      </c>
-      <c r="H62" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+        <v>328</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="3">
+        <v>4</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G63" t="s">
-        <v>285</v>
-      </c>
-      <c r="H63" t="s">
-        <v>286</v>
+        <v>329</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
         <v>49</v>
@@ -3016,265 +3098,57 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G64" t="s">
-        <v>285</v>
-      </c>
-      <c r="H64" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="7">
-        <v>1</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="7">
-        <v>20</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" s="3">
-        <v>8</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="3">
-        <v>5</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E69" s="3">
-        <v>5</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="3">
-        <v>4</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>292</v>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F65" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>336</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>338</v>
+      </c>
+      <c r="F67" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I75">
-    <sortCondition ref="H2:H75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I68">
+    <sortCondition ref="H2:H68"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3283,10 +3157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAA67E9-9811-4B5E-A7FC-26E0B3853EB9}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3364,7 +3238,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
         <v>53</v>
@@ -3375,7 +3249,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>53</v>
@@ -3386,13 +3266,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3403,7 +3283,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -3420,15 +3300,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E9">
@@ -3437,9 +3312,8 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>151</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
@@ -3449,10 +3323,15 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11">
@@ -3461,10 +3340,15 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
         <v>53</v>
       </c>
       <c r="E12">
@@ -3472,10 +3356,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13">
@@ -3483,14 +3367,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
+      <c r="A14" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -3501,13 +3379,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
@@ -3517,8 +3395,14 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>150</v>
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>53</v>
@@ -3528,8 +3412,14 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
-        <v>158</v>
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -3540,235 +3430,259 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
       </c>
       <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
       </c>
       <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A23" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
       </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A26" s="1" t="s">
-        <v>124</v>
+      <c r="F25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="F26" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+        <v>293</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E30" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>288</v>
@@ -3776,22 +3690,25 @@
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>288</v>
@@ -3799,25 +3716,25 @@
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>288</v>
@@ -3825,25 +3742,25 @@
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>288</v>
@@ -3851,25 +3768,25 @@
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>288</v>
@@ -3877,25 +3794,25 @@
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>288</v>
@@ -3903,25 +3820,17 @@
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>288</v>
@@ -3929,158 +3838,148 @@
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E37" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
-        <v>122</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E40" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E42" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="5" t="s">
-        <v>33</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E43" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>292</v>
@@ -4088,19 +3987,19 @@
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E44" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>292</v>
@@ -4108,33 +4007,21 @@
     </row>
     <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E45" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>49</v>
@@ -4148,13 +4035,13 @@
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>49</v>
@@ -4168,7 +4055,13 @@
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>49</v>
@@ -4180,9 +4073,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>49</v>
@@ -4192,6 +4085,187 @@
       </c>
       <c r="F49" s="3" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="3">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>181</v>
+      </c>
+      <c r="G54" t="s">
+        <v>182</v>
+      </c>
+      <c r="H54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>255</v>
+      </c>
+      <c r="G59" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA20284F-C49D-486D-BB63-8A040BE6F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E788B09-2BAC-4E14-8B10-945B6F14FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="344">
   <si>
     <t>Variables names</t>
   </si>
@@ -1096,6 +1096,9 @@
   </si>
   <si>
     <t>beef+veal+lamb</t>
+  </si>
+  <si>
+    <t>Pregnant or not</t>
   </si>
 </sst>
 </file>
@@ -1448,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3144,6 +3147,11 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E788B09-2BAC-4E14-8B10-945B6F14FB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B460B06E-0366-4D92-B1E3-179363151FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B460B06E-0366-4D92-B1E3-179363151FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C1258-2C3D-420E-9B71-12842BDACC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3167,9 +3167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAA67E9-9811-4B5E-A7FC-26E0B3853EB9}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
-    </sheetView>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C1258-2C3D-420E-9B71-12842BDACC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214A00F-0100-4CE9-AD35-1E45CBA10B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214A00F-0100-4CE9-AD35-1E45CBA10B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5F126-9253-4488-9532-417DA5234F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variable used" sheetId="1" r:id="rId1"/>
-    <sheet name="variable not used" sheetId="2" r:id="rId2"/>
+    <sheet name="variable used in analysis" sheetId="4" r:id="rId2"/>
+    <sheet name="variable not used" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="625">
   <si>
     <t>Variables names</t>
   </si>
@@ -1100,12 +1102,856 @@
   <si>
     <t>Pregnant or not</t>
   </si>
+  <si>
+    <t>Variable names</t>
+  </si>
+  <si>
+    <t>Variable type</t>
+  </si>
+  <si>
+    <t>Variable description</t>
+  </si>
+  <si>
+    <t>How variable treated in analysis</t>
+  </si>
+  <si>
+    <t>Variable names in NHANES/NDI/FPED</t>
+  </si>
+  <si>
+    <t>Table name that contain the variable</t>
+  </si>
+  <si>
+    <t>Occurrence in literature</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Possible values</t>
+  </si>
+  <si>
+    <t>41475-83723</t>
+  </si>
+  <si>
+    <t>Not included in analysis</t>
+  </si>
+  <si>
+    <t>Variable names in DATA</t>
+  </si>
+  <si>
+    <t>DEMO_*.xpt</t>
+  </si>
+  <si>
+    <t>COHORT_YEAR</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Release Number. 5:2007-2008; 6: 2009-2010; 7:2011-2012; 8:2013-2014 </t>
+  </si>
+  <si>
+    <t>Optional adjusting variable</t>
+  </si>
+  <si>
+    <t>MORTSTAT</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>NHANES_*_*_MORT_2019_PUBLIC.dat</t>
+  </si>
+  <si>
+    <t>ELIGSTAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligibility Status for Mortality
+Follow-up </t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>The public-use LMF provide mortality follow-up data from the date of survey participation through December 31, 2019. The MORTSTAT variable is the final determination of vital status and should be used as an outcome variable to calculate survival. Each survey participant who is eligible for mortality follow-up is assigned a vital status code (0=Assumed alive, 1=Assumed deceased).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The public-use LMF provide mortality follow-up data from the date of survey participation through December 31, 2019. Survey participants are defined as ineligible for mortality linkage if they had insufficient identifying data. Please note that all survey participants from the survey files are included on the linked mortality files regardless of linkage eligibility. 1: Eligible; 2:Under age 18, not available for public release; 3: Ineligible </t>
+  </si>
+  <si>
+    <t>Number of Person Months of Follow-up from NHANES interview date</t>
+  </si>
+  <si>
+    <t>Number of person-months of follow-up from NHANES interview date. Participants who are assumed alive are assigned the number of person months at the end of the mortality period, December 31, 2019. Only applicable for NHANES III and continuous NHANES (1999-2018)</t>
+  </si>
+  <si>
+    <t>2-159</t>
+  </si>
+  <si>
+    <t>AGE_CONTINIOUS</t>
+  </si>
+  <si>
+    <t>Best age in years of the sample person at time of HH screening. 20-79 years old considered.</t>
+  </si>
+  <si>
+    <t>20-79</t>
+  </si>
+  <si>
+    <t>Mandatory adjusting variables</t>
+  </si>
+  <si>
+    <t>Age groups</t>
+  </si>
+  <si>
+    <t>AGE_GROUP</t>
+  </si>
+  <si>
+    <t>Use age in years to form 3 groups, 20-39 years old; 40-59 years old; 60-79 years old.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20-39 years old, 40-59 years old, 60-79 years old.</t>
+  </si>
+  <si>
+    <t>Used to subset data</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>Gender of the sample person. 1: Male; 2: Female.</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Mandatory adjusting variables, used to subset data</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>RACE_ETHNICITY</t>
+  </si>
+  <si>
+    <t>Recode of reported race and ethnicity information. 1: Mexican American; 2:Other Hispanic; 3:Non-Hispanic White; 4:Non-Hispanic Black; 5:Other Race - Including Multi-Racial</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>(SP Interview Version) What is the highest grade or level of school {you have/SP has} completed or the highest degree {you have/s/he has} received? 1: Less Than 9th Grade; 2: 9-11th Grade (Includes 12th grade with no diploma); 3: High School Grad/GED or Equivalent; 4: Some College or AA degree; 5: College Graduate or above.</t>
+  </si>
+  <si>
+    <t>Index in plot</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>MARITAL_STATUS</t>
+  </si>
+  <si>
+    <t>Marital Status. 1: Married; 2: Widowed; 3:Divorced; 4:Separated; 5:Never married; 6: Living with partner.</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>Education Level</t>
+  </si>
+  <si>
+    <t>Alcohol drinking</t>
+  </si>
+  <si>
+    <t>ALCOHOL_CONTINOUS</t>
+  </si>
+  <si>
+    <t>0-32</t>
+  </si>
+  <si>
+    <t>ALQ120Q&amp;ALQ130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past 12 months, on those days that {you/SP} drank alcoholic beverages, on the average, how many drinks did {you/he/she} have? For question ALQ120Q - How often drink alcohol over past 12 mos, people can answer 0 which means they never drink alcohol, and their corresponding information in ALQ130: Avg # alcoholic drinks/day -past 12 mos will be missing. We give these missing values a 0 in ALQ130. </t>
+  </si>
+  <si>
+    <t>ALQ_*.xpt</t>
+  </si>
+  <si>
+    <t>Alcohol drinking groups</t>
+  </si>
+  <si>
+    <t>ALCOHOL_GROUP</t>
+  </si>
+  <si>
+    <t>Categorize alcohol drinks per day into 3 categories: Non-drinker: =0; Moderate drinker: &lt;2 drinks per day; Heavy drinker&gt;=2 drinks per day.</t>
+  </si>
+  <si>
+    <t>Non-drinker, Moderate drinker, Heavy drinker</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>SMOKING</t>
+  </si>
+  <si>
+    <t>People who answered they never smoked cigarettes regularly or not smoked at least 100 cigarettes in life or smoked at least 100 cigarettes in life but quit are categorized as non or light smoker. People who answered they smoked at least 100 cigarettes in life and continue smoking are categorized as follows: if &gt;67 cigarettes per month (40 pack year) then heavily smoker, if &lt;=67 cigarettes per month (40 pack year) then moderate smoker. For smoking, categorize as 3 groups: 0: Non or light smoker; 1: Moderate smoker; 2: Heavy smoker.</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>Mandatory adjusting variable</t>
+  </si>
+  <si>
+    <t>SMQ020&amp;SMD030&amp;SMQ040&amp;SMD641&amp;SMD650</t>
+  </si>
+  <si>
+    <t>SMQ_*.xpt</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>OCCUPATION</t>
+  </si>
+  <si>
+    <t>How many hours did {you/SP} work last week at all jobs or businesses? If participants answered OCD150 - Type of work done last week to be not working at a job or business, their values in OCQ180 - Hours worked last week at all jobs will be missing. In this case, we give these missing values a 0 in OCQ180. For occupation, we categorized participants into 3 categories: 0: non-worker (0 hours a week); 1: Part time worker (1-30 hours a week); 2: Full time worker (&gt;=31 hours a week).</t>
+  </si>
+  <si>
+    <t>OCD150&amp;OCQ180</t>
+  </si>
+  <si>
+    <t>OCQ_*.xpt</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>Vigorous or moderate recreational activity</t>
+  </si>
+  <si>
+    <t>The next questions exclude the work and transportation activities that you have already mentioned. Now I would like to ask you about sports, fitness and recreational activities. {Do you/Does SP} do any vigorous-intensity sports, fitness, or recreational activities that cause large increases in breathing or heart rate like running or basketball for at least 10 minutes continuously?{Do you/Does SP} do any moderate-intensity sports, fitness, or recreational activities that cause a small increase in breathing or heart rate such as brisk walking, bicycling, swimming, or golf for at least 10 minutes continuously?For physical activity, if the participants either do a vigorous recreational activity or a moderate recreational activity, then they are defined as they do physical activity. If they neither do a vigorous recreational activity and a moderate recreational activity, then they are defined as they don’t do physical activity. If one is missing, the un-missing value will be used. If both missing, then missing. For physical activity, categorize it as 2 groups: 2: No activity, 1: Vigorous or moderate activity</t>
+  </si>
+  <si>
+    <t>PAQ650&amp;PAQ665</t>
+  </si>
+  <si>
+    <t>PAQ_*.xpt</t>
+  </si>
+  <si>
+    <t>Sedentary lifestyle</t>
+  </si>
+  <si>
+    <t>SEDENTARY_LIFESTYLE</t>
+  </si>
+  <si>
+    <t>The following question is about sitting at work, at home, getting to and from places, or with friends, including time spent sitting at a desk, traveling in a car or bus, reading, playing cards, watching television, or using a computer. Do not include time spent sleeping. How much time {do you/does SP} usually spend sitting on a typical day? People whose sedentary lifestyle minutes answered &gt;=1000 is treated as missing because they are probably including the time they sleep and that is not plausible. Categorize sedentary lifestyle as fifth. For sedentary lifestyle, categorize as 5 groups: 1: Low, 2: Lower-middle, 3:Middle, 4:Upper-middle, 5:High</t>
+  </si>
+  <si>
+    <t>SLEEP</t>
+  </si>
+  <si>
+    <t>The next set of questions is about your sleeping habits. How much sleep {do you/does SP} usually get at night on weekdays or workdays? Categorize sleep as 3 groups: &lt;=4 hours, 5-8 hours, &gt;=9 hours.</t>
+  </si>
+  <si>
+    <t>&lt;=4 hours, 5-8 hours, &gt;=9 hours</t>
+  </si>
+  <si>
+    <t>SLQ_*.xpt</t>
+  </si>
+  <si>
+    <t>Annual family income</t>
+  </si>
+  <si>
+    <t>FAMILY_INCOME</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Total family income (reported as a range value in dollars). For Annual Family Income, create 4 categories: 1: $0-$14,999; 2: $15000-$34999; 3: $35000-$64999; 4: Over $65000. For Annual Family Income, subjects that answered over or under $20000 but not as a specific range are treated as missing</t>
+  </si>
+  <si>
+    <t>Socioeconomic status</t>
+  </si>
+  <si>
+    <t>SOCIOECONOMIC_STATUS</t>
+  </si>
+  <si>
+    <t>A ratio of family income to poverty threshold. We categorize ratio of family income to poverty (PIR) into fifth to denote their socioeconomic status. 5 groups are : 1:Low; 2:Lower-middle, 3:Middle, 4:Upper-middle, 5:High</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>BMI_CONTINOUS</t>
+  </si>
+  <si>
+    <t>Body Mass Index (kg/m**2). Exclude Implausible BMI (&lt;15 or ≥60 kg/m2)</t>
+  </si>
+  <si>
+    <t>15.2-59.7</t>
+  </si>
+  <si>
+    <t>BMX_*.xpt</t>
+  </si>
+  <si>
+    <t>BMI group</t>
+  </si>
+  <si>
+    <t>BMI_GROUP</t>
+  </si>
+  <si>
+    <t>Categorize BMI into 4 groups: Underweight (&lt;18.5), Healthy weight (18.5&lt;=&lt;25), Overweight (25&lt;=&lt;30), Obesity (&gt;=30), based on definition of CDC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Underweight, Healthy weight, Overweight, Obesity</t>
+  </si>
+  <si>
+    <t>SYSTOLIC_BLOOD_PRESSURE</t>
+  </si>
+  <si>
+    <t>Systolic: Blood pressure (1st, 2nd, 3rd, 4th reading) mm Hg. Systolic Blood pressure have 4 readings; we use the average of these four readings. Categorize systolic blood pressure into fifth. These groups are: 1:Low, 2: Lower-middle, 3: Middle, 4: Upper-middle, 5: High</t>
+  </si>
+  <si>
+    <t>BPXSY1&amp;BPXSY2&amp;BPXSY3&amp;BPXSY4</t>
+  </si>
+  <si>
+    <t>BPX_*.xpt</t>
+  </si>
+  <si>
+    <t>Health condition</t>
+  </si>
+  <si>
+    <t>GENERAL_HEALTH_CONDITION</t>
+  </si>
+  <si>
+    <t>{First/Next} I have some general questions about {your/SP's} health. Would you say {your/SP's} health in general is . . . For general health conditions, categorize as 5 groups: 5: Poor, 1: Excellent, 2:Very good, 3: Good, 4:Fair</t>
+  </si>
+  <si>
+    <t>HSQ_*.xpt</t>
+  </si>
+  <si>
+    <t>HISTORY_OF_HYPERCHOLESTEROLEMIA</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} ever been told by a doctor or other health professional that {your/his/her} blood cholesterol level was high? category as 2 groups: 1: Yes, 2: No</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>BPQ_*.xpt</t>
+  </si>
+  <si>
+    <t>History of hypetension</t>
+  </si>
+  <si>
+    <t>History of cancer or malignancy</t>
+  </si>
+  <si>
+    <t>Family history of myocardinal infraction</t>
+  </si>
+  <si>
+    <t>HISTORY_OF_HYPERTENSION</t>
+  </si>
+  <si>
+    <t>HISTORY_OF_DIABETES</t>
+  </si>
+  <si>
+    <t>HISTORY_OF_DEPRESSION</t>
+  </si>
+  <si>
+    <t>HISTORY_OF_CARDIOVASCULAR_DISEASE</t>
+  </si>
+  <si>
+    <t>HISTORY_OF_CANCER_OR_MALIGNANCY</t>
+  </si>
+  <si>
+    <t>FAMILY_HISTORY_OF_DIABETES</t>
+  </si>
+  <si>
+    <t>FAMILY_HISTORY_OF_MYOCARDINAL_INFRACTION</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} ever been told by a doctor or other health professional that {you/s/he} had hypertension, also called high blood pressure? category as 2 groups: 1: Yes, 2: No</t>
+  </si>
+  <si>
+    <t>Has a doctor or other health professional ever told {you/SP} that {you/s/he} . . .had coronary heart disease? Has a doctor or other health professional ever told {you/SP} that {you/s/he} . . .had a stroke? History of cardiovascular disease is defined as participants has history of coronary heart disease or history of stroke, if one of them is missing, its value defined as the un-missing value, if both are missing, then its value is missing. category as 2 groups: 1: Yes, 2: No</t>
+  </si>
+  <si>
+    <t>MCQ160C&amp;MCQ160F</t>
+  </si>
+  <si>
+    <t>MCQ_*.xpt</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} ever been told by a doctor or other health professional that {you/s/he} had cancer or a malignancy of any kind? category as 2 groups: 1: Yes, 2: No</t>
+  </si>
+  <si>
+    <t>Including living and deceased, were any of {SP's/your} close biological that is, blood relatives including father, mother, sisters or brothers, ever told by a health professional that they had diabetes? category as 2 groups: 1: Yes, 2: No</t>
+  </si>
+  <si>
+    <t>MCQ300C</t>
+  </si>
+  <si>
+    <t>Including living and deceased, were any of {SP's/your} close biological that is, blood relatives including father, mother, sisters or brothers, ever told by a health professional that they had a heart attack or angina (an-gi-na) before the age of 50? category as 2 groups: 1: Yes, 2: No</t>
+  </si>
+  <si>
+    <t>The next questions are about specific medical conditions. {Other than during pregnancy, {have you/has SP}/{Have you/Has SP}} ever been told by a doctor or health professional that {you have/{he/she/SP} has} diabetes or sugar diabetes? Borderline diabetes treated as no diabetes. category as 2 groups: 1: Yes, 2: No</t>
+  </si>
+  <si>
+    <t>DIQ_*.xpt</t>
+  </si>
+  <si>
+    <t>[Over the last 2 weeks, how often have you been bothered by the following problems:] feeling down, depressed, or hopeless? For depression, DPQ020, we define subject that answers several days or more than half the days or nearly every day as having depression. category as 2 groups: 1: Yes, 2: No</t>
+  </si>
+  <si>
+    <t>DPQ020 </t>
+  </si>
+  <si>
+    <t>DPQ_*.xpt</t>
+  </si>
+  <si>
+    <t>Oral contraceptive use (women)</t>
+  </si>
+  <si>
+    <t>Menopausal status (women)</t>
+  </si>
+  <si>
+    <t>Hermone therapy use (women)</t>
+  </si>
+  <si>
+    <t>Parity (women)</t>
+  </si>
+  <si>
+    <t>Pregnant at baseline (women)</t>
+  </si>
+  <si>
+    <t>MENOPAUSAL_STATUS</t>
+  </si>
+  <si>
+    <t>HERMONE_THERAPY_USE</t>
+  </si>
+  <si>
+    <t>PARITY</t>
+  </si>
+  <si>
+    <t>ORAL_CONTRACEPTIVE_USE</t>
+  </si>
+  <si>
+    <t>RHD_143</t>
+  </si>
+  <si>
+    <t>Menopausal status: if RHQ060 - Age at last menstrual period has a value, then define it as Postmenopausal, if RHQ020 - Age range at first menstrual period has a value and RHQ060 - Age at last menstrual period is missing, then define it as premenopausal. Categorize menopausal status as 2 groups: 0:premenopausal, 1: postmenopausal</t>
+  </si>
+  <si>
+    <t>RHQ020&amp;RHQ060</t>
+  </si>
+  <si>
+    <t>RHQ_*.xpt</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} ever used female hormones such as estrogen and progesterone? Please include any forms of female hormones, such as pills, cream, patch, and injectables, but do not include birth control methods or use for infertility. 1:YES, 2:NO</t>
+  </si>
+  <si>
+    <t>The next questions are about {your/SP's} pregnancy history. {Have you/Has SP ever been pregnant? Please include (current pregnancy,) live births, miscarriages, stillbirths, tubal pregnancies and abortions. categorize parity as two groups: 2:Nulliparous, 1:Parous</t>
+  </si>
+  <si>
+    <t>Now I am going to ask you about {your/SP's} birth control history. {Have you/Has SP} ever taken birth control pills for any reason? categorize oral contraceptive use as two groups: 1:Yes or 2:No</t>
+  </si>
+  <si>
+    <t>RHQ420 </t>
+  </si>
+  <si>
+    <t>RHD143</t>
+  </si>
+  <si>
+    <t>1,2, .</t>
+  </si>
+  <si>
+    <t>{Are you/Is SP} pregnant now? 1:Yes, 2:No, .:missing. Exclude Women pregnant at baseline, women missing pregnant information is treated as non-pregnant at baseline.</t>
+  </si>
+  <si>
+    <t>Use of Aspirin</t>
+  </si>
+  <si>
+    <t>Use of Ibuprofen</t>
+  </si>
+  <si>
+    <t>Use of Opium</t>
+  </si>
+  <si>
+    <t>Use of Statin</t>
+  </si>
+  <si>
+    <t>Use of Valsartan</t>
+  </si>
+  <si>
+    <t>ASPIRIN</t>
+  </si>
+  <si>
+    <t>IBUPROFEN</t>
+  </si>
+  <si>
+    <t>OPIUM</t>
+  </si>
+  <si>
+    <t>STATIN</t>
+  </si>
+  <si>
+    <t>VALSARTAN</t>
+  </si>
+  <si>
+    <t>We searched records of prescription medication use and identified users of aspirin, atovarstatin, ibuprofen, opium, statin, valsartan users. If we did not find any record for a medication for a person, then it is treated as non-user..categorize as two groups: 1:Yes or 0:No</t>
+  </si>
+  <si>
+    <t>We searched records of prescription medication use and identified users of aspirin, atovarstatin, ibuprofen, opium, statin, valsartan users. If we did not find any record for a medication for a person, then it is treated as non-user. categorize as two groups: 1:Yes or 0:No</t>
+  </si>
+  <si>
+    <t>RXQ_RX_*.xpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We searched records of prescription medication use and identified users of aspirin, atovarstatin, ibuprofen, opium, statin, valsartan users. If we did not find any record for a medication for a person, then it is treated as non-user.categorize as two groups: 1:Yes or 0:No</t>
+  </si>
+  <si>
+    <t>Special diet</t>
+  </si>
+  <si>
+    <t>ON_SPECIAL_DIET</t>
+  </si>
+  <si>
+    <t>Are you currently on any kind of diet, either to lose weight or for some other health-related reason? For on special diet or not, categorize as 1:Yes or 2:No</t>
+  </si>
+  <si>
+    <t>DR1TOT_*.xpt</t>
+  </si>
+  <si>
+    <t>Use of dietary supplement</t>
+  </si>
+  <si>
+    <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
+    <t>Any Dietary Supplements taken in the past 24 hour? For dietary supplement use, if either day 1 or day 2 they used dietary supplement, then they are using dietary supplement overall. If neither day 1 and day 2 they used dietary supplement, they are not using dietary supplement. If one is missing, the un-missing value will be used. If both missing, then missing. For dietary supplement intake, categorize as 1:Yes or 2:No</t>
+  </si>
+  <si>
+    <t>DS1DS&amp;DS2DS</t>
+  </si>
+  <si>
+    <t>DS1TOT_F.xpt&amp;DS2TOT_F.xpt</t>
+  </si>
+  <si>
+    <t>Processed meat</t>
+  </si>
+  <si>
+    <t>Unprocessed red meat</t>
+  </si>
+  <si>
+    <t>Poultry</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>Whole grain</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Nuts and seeds</t>
+  </si>
+  <si>
+    <t>Legumes</t>
+  </si>
+  <si>
+    <t>Total diary</t>
+  </si>
+  <si>
+    <t>Total energy</t>
+  </si>
+  <si>
+    <t>Dietary fiber</t>
+  </si>
+  <si>
+    <t>Monounsaturated fatty acid</t>
+  </si>
+  <si>
+    <t>Saturated fatty acid</t>
+  </si>
+  <si>
+    <t>Polyunsaturated fatty acid</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>PROCESSED_MEAT</t>
+  </si>
+  <si>
+    <t>WHOLE_GRAIN</t>
+  </si>
+  <si>
+    <t>NUTS_SEEDS</t>
+  </si>
+  <si>
+    <t>TOTAL_DIARY</t>
+  </si>
+  <si>
+    <t>UNPROCESSED_RED_MEAT_STANDARD_CONTINOUS</t>
+  </si>
+  <si>
+    <t>POULTRY</t>
+  </si>
+  <si>
+    <t>FRUITS</t>
+  </si>
+  <si>
+    <t>VEGETABLES</t>
+  </si>
+  <si>
+    <t>SEAFOOD</t>
+  </si>
+  <si>
+    <t>EGGS</t>
+  </si>
+  <si>
+    <t>LEGUMES</t>
+  </si>
+  <si>
+    <t>TOTAL_ENERGY</t>
+  </si>
+  <si>
+    <t>CARBONHYDRATES</t>
+  </si>
+  <si>
+    <t>DIETARY_FIBER</t>
+  </si>
+  <si>
+    <t>SATURATED_FAT</t>
+  </si>
+  <si>
+    <t>MONOUNSATURATED_FATTY_ACID</t>
+  </si>
+  <si>
+    <t>POLYUNSATURATED_FATTY_ACID</t>
+  </si>
+  <si>
+    <t>CHOLESTEROL</t>
+  </si>
+  <si>
+    <t>MAGNESIUM</t>
+  </si>
+  <si>
+    <t>Exposure variable</t>
+  </si>
+  <si>
+    <t>For total nutrition intake variables (TCAL, TCARB ….), we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Carbohydrate (gm/d)</t>
+  </si>
+  <si>
+    <t>For total nutrition intake variables (TCAL, TCARB ….), we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Dietary fiber (gm/d)</t>
+  </si>
+  <si>
+    <t>For total nutrition intake variables (TCAL, TCARB ….), we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Total saturated fatty acids (gm/d)</t>
+  </si>
+  <si>
+    <t>For total nutrition intake variables (TCAL, TCARB ….), we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Total monounsaturated fatty acids (gm/d)</t>
+  </si>
+  <si>
+    <t>For total nutrition intake variables (TCAL, TCARB ….), we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Total polyunsaturated fatty acids (gm/d)</t>
+  </si>
+  <si>
+    <t>For total nutrition intake variables (TCAL, TCARB ….), we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Cholesterol (mg/d)</t>
+  </si>
+  <si>
+    <t>For total nutrition intake variables (TCAL, TCARB ….), we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Magnesium (mg/d)</t>
+  </si>
+  <si>
+    <t>For total nutrition intake variables (TCAL, TCARB ….), we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Energy (kcal/d). exclude Extreme value of total energy intake (&lt;500kcal/d or &gt;4500kcal/d)</t>
+  </si>
+  <si>
+    <t>DR1TKCAL&amp;DR2TKCAL</t>
+  </si>
+  <si>
+    <t>DR1TCARB&amp;DR2TCARB</t>
+  </si>
+  <si>
+    <t>DR1TFIBE&amp;DR2TFIBE</t>
+  </si>
+  <si>
+    <t>DR1TSFAT&amp;DR2TSFAT</t>
+  </si>
+  <si>
+    <t>DR1TMFAT&amp;DR2TMFAT</t>
+  </si>
+  <si>
+    <t>DR1TPFAT&amp;DR2TPFAT</t>
+  </si>
+  <si>
+    <t>DR1TCHOL&amp;DR2TCHOL</t>
+  </si>
+  <si>
+    <t>DR1TMAGN&amp;DR2TMAGN</t>
+  </si>
+  <si>
+    <t>DR1TOT_*.xpt&amp;DR2TOT_*.xpt</t>
+  </si>
+  <si>
+    <t>500-4494</t>
+  </si>
+  <si>
+    <t>17.605-811.14</t>
+  </si>
+  <si>
+    <t>0-128.6</t>
+  </si>
+  <si>
+    <t>0-104.155</t>
+  </si>
+  <si>
+    <t>0-117.202</t>
+  </si>
+  <si>
+    <t>0-102.639</t>
+  </si>
+  <si>
+    <t>0-1740</t>
+  </si>
+  <si>
+    <t>29.5-1721</t>
+  </si>
+  <si>
+    <t>DR1T_PF_CUREDMEAT&amp;DR2T_PF_CUREDMEAT</t>
+  </si>
+  <si>
+    <t>fped_dr1tot_*.sas7bdat&amp;fped_dr1tot_*.sas7bdat</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Processed meat defined as curved meat: Bacon, Beef sausage, Beef luncheon meat, Blood sausage, Bockwurst, Bologna, Bratwurst, Braunschweiger, Capicola, Cervelat, Chicken sticks, Chicken luncheon meat, Chicken or turkey loaf, Chorizo, Cold cut deli meat, Corned beef, Chipped beef, Dutch brand loaf, Frankfurters, Ham (cured, smoked, deli, deviled, loaf, luncheon meat, minced), Head cheese, Honey loaf, Hotdogs, Italian sausage, Jerky (all meats), Kielbasa, Knockwurst, Liverwurst, Meat spreads, Meat sticks, Mettwurst, Mortadella, Pastrami, Pepperoni, Pepper loaf, Polish sausage, Pork luncheon meat, Pork sausage, Potted meats, Salami, Sandwich loaf, Souse,  Thuringer, Turkey luncheon meat, Turkey sausage, Turkey smoked, Turkey sticks, Veal loaf, Vienna sausage. gram.eq used.</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. Unprocessed read meat defined as: Armadillo, Bacon (not cured), Bear, Beaver, Beef, Bison, Caribou, Game meat (other), Goat, Ground hog, Ham (not cured), Lamb, Moose, Opossum, Oxtail, Pork, Rabbit, Raccoon, Squirrel, Veal, Venison, Wild pig. If both missing, then missing. gram.eq used.</t>
+  </si>
+  <si>
+    <t>DR1T_PF_MEAT&amp;DR2T_PF_MEAT</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Poultry defined as: Chicken, Cornish game hen, Dove, Duck, Goose, Ostrich, Pheasant, Quail, Turkey. gram.eq used.</t>
+  </si>
+  <si>
+    <t>DR1T_PF_POULT&amp;DR2T_PF_POULT</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Fruit defined as: Citrus, Melons, and Berries type+ Other Fruits type but exclude juice. Citrus, Melons, and Berries type: Blackberries, Blueberries, Boysenberries, Calamondin, Cantaloupe, Casaba, Cranberries, Dewberries, Grapefruit, Honeydew, Huckleberries, Juneberries, Kiwi fruit, Kumquats, Lemons, Limes, Loganberries, Mandarins, Mulberries, Oranges, Raspberries, Strawberries, Tangelos, Tangerines, Watermelon, Youngberries. Other Fruits type: Apples, Apricots, Bananas, Cherries, Currants, Dates, Figs, Grapes, Guava, Lychees, Mangoes, Nectarines, Papayas, Passion fruits, Peaches, Pears, Persimmons, Pineapple, Plums (Ciruelas), Pomegranates, Prunes, Raisins, Rhubarb, Soursop (Guanabana), Starfruit (Carambola), Tamarind. Cup.eq used.</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. Vegetables include: Dark Green Vegetables+ Total Red and Orange Vegetables+ Total Starchy Vegetables+ Other Vegetables. Dark Green vegetables include: Arugula Basil Beet greens Bitter melon leaves Broccoli Chinese Cabbage (pak-choi) Chrysanthemum garland Chard Chicory leaves Cilantro (Coriander) Collards Cress Dandelion greens Endive Escarole Greens Horseradish leaves Kale Lambsquarters Leaves of grapes, pumpkin, squash, sweet potato, swamp cabbage, taro, and thistle Lettuce (Boston, butterhead, green or red leaf, Cos or Romaine) Mustard cabbage Mustard greens Parsley Poke greens Spinach Turnip greens Watercress. Total red and orange vegetables include: Tomatoes (canned, cooked, raw, stewed) Tomatoes, dried Tomato juice Tomato paste Tomato puree Tomato sauce Calabaza (Spanish pumpkin) Carrots Carrot juice Red colored bell, and nonbell peppers Pimiento Pumpkin Squash (most winter varieties) Sweet potatoes. Total starchy vegetables include: White potatoes White potato flour White potato flakes Breadfruit Burdock Cassava (Yuca blanca) Corn, sweet (raw) Dasheen Green bananas Hominy Jicama (Yam beans) Lima beans, immature Lotus root Parsnips Immature peas (e.g., immature cowpeas, blackeye peas, green peas, pigeon peas) Plantains Salsify Tannier Tapioca Taro Water chestnuts Yams. Other vegetables include: Alfalfa sprouts Artichoke Asparagus Avocado Bamboo shoots Beans (green, yellow, snap, string) Bean sprouts Beets Bitter melon (bitter gourd, balsam pear) Broccoflower Brussels sprouts Cabbage Cactus (Nopales) Capers Cauliflower Celeriac Celery Chayote (Christophine) Chinese cabbage (Pei-tsai) Chinese okra (Luffa) Chives Cucumber Eggplant Fennel bulb Flowers, edible Garlic Ginger root Horseradish pods Jute Kohlrabi Leeks Lettuce (varieties not in dark green category) Mushrooms Okra Olives Onions Palm hearts Peas, podded Peppers, bell and nonbell peppers (not red or orange in color) Pokeberry shoots Radicchio Radish Rutabaga Scallions Seaweed Snow peas Sprouted beans (e.g. mung, soybean) Squash (green, sequin, spaghetti, yellow, zucchini, most summer varieties) Tomatillos Tomatoes, green Turnips Winter melon (Wax gourd) If both missing, then missing. Cup.eq used.</t>
+  </si>
+  <si>
+    <t>DR1T_F_CITMLB&amp;DR2T_F_CITMLB&amp;DR1T_F_OTHER&amp;DR2T_F_OTHER</t>
+  </si>
+  <si>
+    <t>DR1T_V_TOTAL&amp;DR2T_V_TOTAL</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Seafood defined as Seafood High in n-3 Fatty Acids type+ Seafood Low in n-3 Fatty Acids type. Seafood High in n-3 Fatty Acids: Anchovy Barracuda Caviar (roe) Cisco Herring Mackerel Pompano Ray Salmon Sardine Sea bass Shad Shark Squid Swordfish Trout Tuna (albacore and bluefin) Whitefish. Seafood Low in n-3 Fatty Acids type: Abalone Carp Catfish Clams Cod Crab Crayfish Croaker Eel Flounder Frog legs Haddock Halibut Lobster Mullet Mussels Ocean perch Octopus Oyster Perch Pike Pollock Porgy Scallop Scup Shrimp Snail Snapper Sole Sturgeon Tilapia Tuna (except albacore and bluefin) Turtle Whiting. gram.eq used.</t>
+  </si>
+  <si>
+    <t>DR1T_PF_SEAFD_HI&amp;DR1T_PF_SEAFD_LOW&amp;DR2T_PF_SEAFD_HI&amp;DR2T_PF_SEAFD_LOW</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Whole grain defined as: Amaranth Barley, whole Barley flour (whole barley) Barley meal Brown rice Brown rice flour Buckwheat groats Bulgur Corn, whole grain Corn meal or flour (whole grain) Millett Oats Oat flour Oatmeal Popcorn Quinoa Rye, whole grain Rye flour (dark) Triticale Wheat Whole wheat flour Wild rice. gram.eq used.</t>
+  </si>
+  <si>
+    <t>DR1T_G_WHOLE&amp;DR2T_G_WHOLE</t>
+  </si>
+  <si>
+    <t>DR1T_D_TOTAL&amp;DR2T_D_TOTAL</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Egg defined as: Eggs, whole (chicken, duck, goose, quail, and other birds) Egg white Egg yolk Egg substitute Egg, dried. gram.eq used.</t>
+  </si>
+  <si>
+    <t>DR1T_PF_EGGS&amp;DR2T_PF_EGGS</t>
+  </si>
+  <si>
+    <t>DR1T_PF_LEGUMES&amp;DR2T_PF_LEGUMES</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Nuts and seeds defined as: Almonds Almond butter Almond paste Brazil nuts Cashew Cashew butter Chestnuts Flax seeds Hazelnuts Macadamia nuts Peanuts Peanut butter Peanut flour Pecans Pine nuts Pistachios Pumpkin seeds Squash seeds Sesame butter (tahini) Sesame seeds Sesame paste Sunflower seeds Walnuts. gram.eq used.</t>
+  </si>
+  <si>
+    <t>DR1T_PF_NUTSDS&amp;DR2T_PF_NUTSDS</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Legume defined as: Black beans Blackeye peas Brown beans Bayo beans Calico beans Carob Chickpeas (Garbanzo beans) Cowpeas Fava beans Kidney beans Lentils Mature lima beans Mung beans Navy beans Pink beans Pinto beans Red Mexican beans Soybeans (raw) Split peas White beans. gram.eq used.</t>
+  </si>
+  <si>
+    <t>For individual food components, we averaged day 1 and day 2. If one is missing, then the un-missing value is used. If both missing, then missing. Total diary defined as: Milk type+ Yogurt type + Cheese type. Milk type: Buttermilk Evaporated milk Filled milk Milk, dry Milk, evaporated Milk, fluid Goat milk, fluid Soy milk, calcium added. Yogurt type: Includes yogurt of all fat-types and yogurt present in flavored and frozen yogurt. Cheese type: American cheese Blue cheese Brick cheese Brie cheese Camembert cheese Cheddar cheese Colby cheese Colby Jack cheese Cottage cheese Cream cheese, fat free Edam cheese Feta cheese Fontina cheese Goat cheese Gouda cheese Gruyere cheese Limburger cheese Mexican blend Monterey cheese Mozzarella cheese Muenster cheese Parmesan cheese Pasteurized cheese Port de salut cheese Provolone cheese Ricotta cheese Romano cheese Roquefort Swiss cheese Queso anejo Queso asadero Queso Chiluahua Queso del pais, blanco Queso fresco. Cup.eq used.</t>
+  </si>
+  <si>
+    <t>0-567.42525</t>
+  </si>
+  <si>
+    <t>0-749.43225</t>
+  </si>
+  <si>
+    <t>0-783.594</t>
+  </si>
+  <si>
+    <t>0-19.64</t>
+  </si>
+  <si>
+    <t>0-29.835</t>
+  </si>
+  <si>
+    <t>0-750.141</t>
+  </si>
+  <si>
+    <t>0-515.97</t>
+  </si>
+  <si>
+    <t>0-678.699</t>
+  </si>
+  <si>
+    <t>0-680.4</t>
+  </si>
+  <si>
+    <t>0-578.907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-16.83 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,6 +1980,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1155,7 +2009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1170,6 +2024,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1453,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3164,6 +4039,1998 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8890C21-7105-4FBD-B7DC-23AD3DBECD08}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="38.89453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="43.47265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.7890625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="109.26171875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="45.68359375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.47265625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="34.1015625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="34.578125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="21.15625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.05078125" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I7" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I9" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I10" s="14">
+        <v>6</v>
+      </c>
+      <c r="J10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I11" s="14">
+        <v>14</v>
+      </c>
+      <c r="J11" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" s="14">
+        <v>6</v>
+      </c>
+      <c r="J12" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="I13" s="14">
+        <v>14</v>
+      </c>
+      <c r="J13" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="J14" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="93.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="I15" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="93.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1</v>
+      </c>
+      <c r="J16" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="I17" s="14">
+        <v>18</v>
+      </c>
+      <c r="J17" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="109.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="I21" s="14">
+        <v>5</v>
+      </c>
+      <c r="J21" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="I22" s="14">
+        <v>19</v>
+      </c>
+      <c r="J22" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="J23" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2</v>
+      </c>
+      <c r="J25" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="I26" s="14">
+        <v>7</v>
+      </c>
+      <c r="J26" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="I27" s="14">
+        <v>7</v>
+      </c>
+      <c r="J27" s="14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="I28" s="14">
+        <v>7</v>
+      </c>
+      <c r="J28" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1</v>
+      </c>
+      <c r="J29" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="I30" s="14">
+        <v>2</v>
+      </c>
+      <c r="J30" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="I31" s="14">
+        <v>2</v>
+      </c>
+      <c r="J31" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="I33" s="14">
+        <v>1</v>
+      </c>
+      <c r="J33" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="I34" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="I35" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="I36" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1</v>
+      </c>
+      <c r="J39" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="I40" s="14">
+        <v>1</v>
+      </c>
+      <c r="J40" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1</v>
+      </c>
+      <c r="J41" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="I42" s="14">
+        <v>2</v>
+      </c>
+      <c r="J42" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="I43" s="14">
+        <v>1</v>
+      </c>
+      <c r="J43" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1</v>
+      </c>
+      <c r="J44" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="I45" s="14">
+        <v>7</v>
+      </c>
+      <c r="J45" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="156" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I46" s="14">
+        <v>5</v>
+      </c>
+      <c r="J46" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I47" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I48" s="14">
+        <v>8</v>
+      </c>
+      <c r="J48" s="14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="181.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I49" s="14">
+        <v>15</v>
+      </c>
+      <c r="J49" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="390" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I50" s="14">
+        <v>14</v>
+      </c>
+      <c r="J50" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="167.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I51" s="14">
+        <v>11</v>
+      </c>
+      <c r="J51" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="93.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I52" s="14">
+        <v>4</v>
+      </c>
+      <c r="J52" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I53" s="14">
+        <v>5</v>
+      </c>
+      <c r="J53" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="93.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I54" s="14">
+        <v>5</v>
+      </c>
+      <c r="J54" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I55" s="14">
+        <v>6</v>
+      </c>
+      <c r="J55" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="171.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="I56" s="14">
+        <v>6</v>
+      </c>
+      <c r="J56" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I57" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I58" s="14">
+        <v>4</v>
+      </c>
+      <c r="J58" s="14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I59" s="14">
+        <v>4</v>
+      </c>
+      <c r="J59" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I60" s="14">
+        <v>3</v>
+      </c>
+      <c r="J60" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I61" s="14">
+        <v>2</v>
+      </c>
+      <c r="J61" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I62" s="14">
+        <v>2</v>
+      </c>
+      <c r="J62" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I63" s="14">
+        <v>1</v>
+      </c>
+      <c r="J63" s="14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I64" s="14">
+        <v>1</v>
+      </c>
+      <c r="J64" s="14">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="34" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAA67E9-9811-4B5E-A7FC-26E0B3853EB9}">
   <dimension ref="A1:H60"/>
   <sheetViews>
@@ -4276,5 +7143,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DD1D7A-0012-422E-8D1E-8F124C8D22CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/variables.xlsx
+++ b/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumin's Thinkpad\Desktop\Read-Meat-Consumption---All-Cause-Mortality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5F126-9253-4488-9532-417DA5234F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625EE29-7AB2-4F63-8488-A15D9724ED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1951,7 +1951,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1982,7 +1982,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1997,7 +2004,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2005,11 +2012,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2025,26 +2069,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4046,1987 +4096,2016 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="38.89453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="43.47265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.7890625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="109.26171875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="45.68359375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="30.47265625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="34.1015625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="34.578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="21.15625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.05078125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="43.47265625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.47265625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="119.7890625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="45.68359375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.47265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="34.1015625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="34.578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="21.15625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="14.05078125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="A1" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>356</v>
       </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I3" s="14">
-        <v>1</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>365</v>
       </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>365</v>
       </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>20</v>
       </c>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>382</v>
       </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <v>15</v>
       </c>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>6</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="11">
         <v>14</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <v>6</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="11">
         <v>14</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="J14" s="14">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="93.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="93.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10" t="s">
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="I16" s="14">
-        <v>1</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="187.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:10" ht="140.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="11">
         <v>18</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="109.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="I18" s="14">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="I19" s="14">
-        <v>1</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I20" s="14">
-        <v>1</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="11">
         <v>5</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="11">
         <v>19</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="14">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="I24" s="14">
-        <v>1</v>
-      </c>
-      <c r="J24" s="14">
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="11">
         <v>2</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="11">
         <v>7</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="11">
         <v>7</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="11">
         <v>7</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="12">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="I29" s="14">
-        <v>1</v>
-      </c>
-      <c r="J29" s="14">
+      <c r="I29" s="11">
+        <v>1</v>
+      </c>
+      <c r="J29" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="11">
         <v>2</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="11">
         <v>2</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="I32" s="14">
-        <v>1</v>
-      </c>
-      <c r="J32" s="14">
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+      <c r="J32" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="I33" s="14">
-        <v>1</v>
-      </c>
-      <c r="J33" s="14">
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
+      <c r="J33" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="10" t="s">
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="10" t="s">
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="I36" s="14">
-        <v>1</v>
-      </c>
+      <c r="I36" s="11">
+        <v>1</v>
+      </c>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="I37" s="14">
-        <v>1</v>
-      </c>
+      <c r="I37" s="11">
+        <v>1</v>
+      </c>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="11" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="10" t="s">
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="I39" s="14">
-        <v>1</v>
-      </c>
-      <c r="J39" s="14">
+      <c r="I39" s="11">
+        <v>1</v>
+      </c>
+      <c r="J39" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="I40" s="14">
-        <v>1</v>
-      </c>
-      <c r="J40" s="14">
+      <c r="I40" s="11">
+        <v>1</v>
+      </c>
+      <c r="J40" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="I41" s="14">
-        <v>1</v>
-      </c>
-      <c r="J41" s="14">
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+      <c r="J41" s="12">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="11">
         <v>2</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="I43" s="14">
-        <v>1</v>
-      </c>
-      <c r="J43" s="14">
+      <c r="I43" s="11">
+        <v>1</v>
+      </c>
+      <c r="J43" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="I44" s="14">
-        <v>1</v>
-      </c>
-      <c r="J44" s="14">
+      <c r="I44" s="11">
+        <v>1</v>
+      </c>
+      <c r="J44" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="11">
         <v>7</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="156" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:10" ht="109.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="11">
         <v>5</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="10" t="s">
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="11">
         <v>8</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="181.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="11">
         <v>15</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="390" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:10" ht="280.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="11">
         <v>14</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="167.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="11">
         <v>11</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="93.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="11">
         <v>4</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="12">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="11">
         <v>5</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="12">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="93.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="11">
         <v>5</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="78" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:10" ht="62.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="11">
         <v>6</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="12">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="171.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:10" ht="124.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="11">
         <v>6</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="12">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="11">
         <v>14</v>
       </c>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="11">
         <v>4</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="12">
         <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="11">
         <v>4</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="11">
         <v>3</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="12">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="11">
         <v>2</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="11">
         <v>2</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="12">
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="I63" s="14">
-        <v>1</v>
-      </c>
-      <c r="J63" s="14">
+      <c r="I63" s="11">
+        <v>1</v>
+      </c>
+      <c r="J63" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="I64" s="14">
-        <v>1</v>
-      </c>
-      <c r="J64" s="14">
+      <c r="I64" s="11">
+        <v>1</v>
+      </c>
+      <c r="J64" s="12">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="34" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
